--- a/xlsx/country_comparison/foreign_aid_amount_mean.xlsx
+++ b/xlsx/country_comparison/foreign_aid_amount_mean.xlsx
@@ -398,80 +398,72 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>2.07461538461538</v>
+        <v>2.61764705882353</v>
       </c>
       <c r="C2" t="n">
-        <v>2.29354838709677</v>
+        <v>2.44661016949153</v>
       </c>
       <c r="D2" t="n">
-        <v>2.56851851851852</v>
+        <v>3.7508547008547</v>
       </c>
       <c r="E2" t="n">
-        <v>3.26119402985075</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4.9695652173913</v>
-      </c>
+        <v>3.34285714285714</v>
+      </c>
+      <c r="F2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>3.40714285714286</v>
+        <v>4.66171875</v>
       </c>
       <c r="C3" t="n">
-        <v>3.53461538461538</v>
+        <v>4.83314606741573</v>
       </c>
       <c r="D3" t="n">
-        <v>4.27142857142857</v>
+        <v>4.38965517241379</v>
       </c>
       <c r="E3" t="n">
-        <v>3.00147058823529</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4.38157894736842</v>
-      </c>
+        <v>1.8975</v>
+      </c>
+      <c r="F3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>2.69583333333333</v>
+        <v>3.51571428571429</v>
       </c>
       <c r="C4" t="n">
-        <v>2.93055555555556</v>
+        <v>3.26436781609195</v>
       </c>
       <c r="D4" t="n">
-        <v>1.87142857142857</v>
+        <v>2.18571428571429</v>
       </c>
       <c r="E4" t="n">
-        <v>2.06969696969697</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.22021276595745</v>
-      </c>
+        <v>3.16041666666667</v>
+      </c>
+      <c r="F4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>3.00703125</v>
+        <v>4.06305970149254</v>
       </c>
       <c r="C5" t="n">
-        <v>3.18387096774194</v>
+        <v>4.05767045454545</v>
       </c>
       <c r="D5" t="n">
-        <v>3.07142857142857</v>
+        <v>3.24214876033058</v>
       </c>
       <c r="E5" t="n">
-        <v>2.54253731343284</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.63352941176471</v>
-      </c>
+        <v>2.58636363636364</v>
+      </c>
+      <c r="F5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/country_comparison/foreign_aid_amount_mean.xlsx
+++ b/xlsx/country_comparison/foreign_aid_amount_mean.xlsx
@@ -398,16 +398,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>2.61764705882353</v>
+        <v>2.55802675585284</v>
       </c>
       <c r="C2" t="n">
-        <v>2.44661016949153</v>
+        <v>2.82095238095238</v>
       </c>
       <c r="D2" t="n">
-        <v>3.7508547008547</v>
+        <v>2.6030888030888</v>
       </c>
       <c r="E2" t="n">
-        <v>3.34285714285714</v>
+        <v>3.00679611650485</v>
       </c>
       <c r="F2"/>
     </row>
@@ -416,16 +416,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>4.66171875</v>
+        <v>4.37597402597403</v>
       </c>
       <c r="C3" t="n">
-        <v>4.83314606741573</v>
+        <v>4.55853658536585</v>
       </c>
       <c r="D3" t="n">
-        <v>4.38965517241379</v>
+        <v>3.15253623188406</v>
       </c>
       <c r="E3" t="n">
-        <v>1.8975</v>
+        <v>2.67467532467532</v>
       </c>
       <c r="F3"/>
     </row>
@@ -434,16 +434,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>3.51571428571429</v>
+        <v>3.12065972222222</v>
       </c>
       <c r="C4" t="n">
-        <v>3.26436781609195</v>
+        <v>2.99878048780488</v>
       </c>
       <c r="D4" t="n">
-        <v>2.18571428571429</v>
+        <v>1.89588235294118</v>
       </c>
       <c r="E4" t="n">
-        <v>3.16041666666667</v>
+        <v>2.01393939393939</v>
       </c>
       <c r="F4"/>
     </row>
@@ -452,16 +452,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>4.06305970149254</v>
+        <v>3.76937919463087</v>
       </c>
       <c r="C5" t="n">
-        <v>4.05767045454545</v>
+        <v>3.77865853658537</v>
       </c>
       <c r="D5" t="n">
-        <v>3.24214876033058</v>
+        <v>2.54905838041431</v>
       </c>
       <c r="E5" t="n">
-        <v>2.58636363636364</v>
+        <v>2.33291536050157</v>
       </c>
       <c r="F5"/>
     </row>

--- a/xlsx/country_comparison/foreign_aid_amount_mean.xlsx
+++ b/xlsx/country_comparison/foreign_aid_amount_mean.xlsx
@@ -35,13 +35,13 @@
     <t xml:space="preserve">Belief about foreign aid / public spending</t>
   </si>
   <si>
+    <t xml:space="preserve">Actual foreign aid (in % of public spending)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Preferred foreign aid (no info)</t>
   </si>
   <si>
     <t xml:space="preserve">Preferred foreign aid (with info)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred foreign aid (any branch)</t>
   </si>
 </sst>
 </file>
@@ -398,16 +398,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>2.55802675585284</v>
+        <v>2.52651641245923</v>
       </c>
       <c r="C2" t="n">
-        <v>2.82095238095238</v>
+        <v>2.84376659656523</v>
       </c>
       <c r="D2" t="n">
-        <v>2.6030888030888</v>
+        <v>2.56693189957971</v>
       </c>
       <c r="E2" t="n">
-        <v>3.00679611650485</v>
+        <v>3.12081440539862</v>
       </c>
       <c r="F2"/>
     </row>
@@ -416,34 +416,36 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>4.37597402597403</v>
+        <v>0.8</v>
       </c>
       <c r="C3" t="n">
-        <v>4.55853658536585</v>
+        <v>1.3</v>
       </c>
       <c r="D3" t="n">
-        <v>3.15253623188406</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>2.67467532467532</v>
-      </c>
-      <c r="F3"/>
+        <v>1.7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>3.12065972222222</v>
+        <v>4.31301861810723</v>
       </c>
       <c r="C4" t="n">
-        <v>2.99878048780488</v>
+        <v>4.53341316849836</v>
       </c>
       <c r="D4" t="n">
-        <v>1.89588235294118</v>
+        <v>3.15511863545559</v>
       </c>
       <c r="E4" t="n">
-        <v>2.01393939393939</v>
+        <v>2.79907392849897</v>
       </c>
       <c r="F4"/>
     </row>
@@ -452,16 +454,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>3.76937919463087</v>
+        <v>3.13457145733374</v>
       </c>
       <c r="C5" t="n">
-        <v>3.77865853658537</v>
+        <v>2.99179289142111</v>
       </c>
       <c r="D5" t="n">
-        <v>2.54905838041431</v>
+        <v>1.87845781278527</v>
       </c>
       <c r="E5" t="n">
-        <v>2.33291536050157</v>
+        <v>1.97703278779105</v>
       </c>
       <c r="F5"/>
     </row>

--- a/xlsx/country_comparison/foreign_aid_amount_mean.xlsx
+++ b/xlsx/country_comparison/foreign_aid_amount_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Belief about foreign aid / public spending</t>
@@ -392,80 +395,95 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2.52651641245923</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B2"/>
       <c r="C2" t="n">
-        <v>2.84376659656523</v>
+        <v>2.7859023648276</v>
       </c>
       <c r="D2" t="n">
-        <v>2.56693189957971</v>
+        <v>2.51515863356482</v>
       </c>
       <c r="E2" t="n">
-        <v>3.12081440539862</v>
-      </c>
-      <c r="F2"/>
+        <v>2.8202582796144</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.57279975627254</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.15256325507764</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.13360414048105</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.8</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>1.3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>0.5</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>1.7</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4.31301861810723</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B4"/>
       <c r="C4" t="n">
-        <v>4.53341316849836</v>
+        <v>3.78943897123585</v>
       </c>
       <c r="D4" t="n">
-        <v>3.15511863545559</v>
+        <v>4.5983643916985</v>
       </c>
       <c r="E4" t="n">
-        <v>2.79907392849897</v>
-      </c>
-      <c r="F4"/>
+        <v>4.38422171858309</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.92394859583192</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.17663302696701</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3.13457145733374</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B5"/>
       <c r="C5" t="n">
-        <v>2.99179289142111</v>
+        <v>2.5668239769631</v>
       </c>
       <c r="D5" t="n">
-        <v>1.87845781278527</v>
+        <v>3.30899685462196</v>
       </c>
       <c r="E5" t="n">
-        <v>1.97703278779105</v>
-      </c>
-      <c r="F5"/>
+        <v>2.83148888644328</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.02657538511332</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.49817866334461</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/country_comparison/foreign_aid_amount_mean.xlsx
+++ b/xlsx/country_comparison/foreign_aid_amount_mean.xlsx
@@ -35,10 +35,10 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Belief about foreign aid / public spending</t>
-  </si>
-  <si>
     <t xml:space="preserve">Actual foreign aid (in % of public spending)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belief about foreign aid</t>
   </si>
   <si>
     <t xml:space="preserve">Preferred foreign aid (no info)</t>
@@ -403,44 +403,44 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="n">
+        <v>0.4</v>
+      </c>
       <c r="C2" t="n">
-        <v>2.7859023648276</v>
+        <v>1.13360414048105</v>
       </c>
       <c r="D2" t="n">
-        <v>2.51515863356482</v>
+        <v>0.8</v>
       </c>
       <c r="E2" t="n">
-        <v>2.8202582796144</v>
+        <v>1.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.57279975627254</v>
+        <v>0.5</v>
       </c>
       <c r="G2" t="n">
-        <v>3.15256325507764</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="B3"/>
       <c r="C3" t="n">
-        <v>1.13360414048105</v>
+        <v>2.7859023648276</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8</v>
+        <v>2.51515863356482</v>
       </c>
       <c r="E3" t="n">
-        <v>1.3</v>
+        <v>2.8202582796144</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>2.57279975627254</v>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>3.15256325507764</v>
       </c>
     </row>
     <row r="4">

--- a/xlsx/country_comparison/foreign_aid_amount_mean.xlsx
+++ b/xlsx/country_comparison/foreign_aid_amount_mean.xlsx
@@ -41,10 +41,10 @@
     <t xml:space="preserve">Belief about foreign aid</t>
   </si>
   <si>
+    <t xml:space="preserve">Preferred foreign aid (with info)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Preferred foreign aid (no info)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred foreign aid (with info)</t>
   </si>
 </sst>
 </file>
@@ -449,19 +449,19 @@
       </c>
       <c r="B4"/>
       <c r="C4" t="n">
-        <v>3.78943897123585</v>
+        <v>2.5668239769631</v>
       </c>
       <c r="D4" t="n">
-        <v>4.5983643916985</v>
+        <v>3.30899685462196</v>
       </c>
       <c r="E4" t="n">
-        <v>4.38422171858309</v>
+        <v>2.83148888644328</v>
       </c>
       <c r="F4" t="n">
-        <v>2.92394859583192</v>
+        <v>2.02657538511332</v>
       </c>
       <c r="G4" t="n">
-        <v>3.17663302696701</v>
+        <v>2.49817866334461</v>
       </c>
     </row>
     <row r="5">
@@ -470,19 +470,19 @@
       </c>
       <c r="B5"/>
       <c r="C5" t="n">
-        <v>2.5668239769631</v>
+        <v>3.78943897123585</v>
       </c>
       <c r="D5" t="n">
-        <v>3.30899685462196</v>
+        <v>4.5983643916985</v>
       </c>
       <c r="E5" t="n">
-        <v>2.83148888644328</v>
+        <v>4.38422171858309</v>
       </c>
       <c r="F5" t="n">
-        <v>2.02657538511332</v>
+        <v>2.92394859583192</v>
       </c>
       <c r="G5" t="n">
-        <v>2.49817866334461</v>
+        <v>3.17663302696701</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/foreign_aid_amount_mean.xlsx
+++ b/xlsx/country_comparison/foreign_aid_amount_mean.xlsx
@@ -407,7 +407,7 @@
         <v>0.4</v>
       </c>
       <c r="C2" t="n">
-        <v>1.13360414048105</v>
+        <v>1.13357882359957</v>
       </c>
       <c r="D2" t="n">
         <v>0.8</v>
@@ -426,63 +426,69 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C3" t="n">
-        <v>2.7859023648276</v>
+        <v>2.90560365821834</v>
       </c>
       <c r="D3" t="n">
-        <v>2.51515863356482</v>
+        <v>2.67517689445609</v>
       </c>
       <c r="E3" t="n">
-        <v>2.8202582796144</v>
+        <v>2.90616259633567</v>
       </c>
       <c r="F3" t="n">
-        <v>2.57279975627254</v>
+        <v>2.65909649636772</v>
       </c>
       <c r="G3" t="n">
-        <v>3.15256325507764</v>
+        <v>3.45366733693718</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C4" t="n">
-        <v>2.5668239769631</v>
+        <v>2.65748716218498</v>
       </c>
       <c r="D4" t="n">
-        <v>3.30899685462196</v>
+        <v>3.40755479475017</v>
       </c>
       <c r="E4" t="n">
-        <v>2.83148888644328</v>
+        <v>2.91765708209649</v>
       </c>
       <c r="F4" t="n">
-        <v>2.02657538511332</v>
+        <v>2.01061505983645</v>
       </c>
       <c r="G4" t="n">
-        <v>2.49817866334461</v>
+        <v>2.46502816510886</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C5" t="n">
-        <v>3.78943897123585</v>
+        <v>3.84901946471284</v>
       </c>
       <c r="D5" t="n">
-        <v>4.5983643916985</v>
+        <v>4.66599577940995</v>
       </c>
       <c r="E5" t="n">
-        <v>4.38422171858309</v>
+        <v>4.39841088807466</v>
       </c>
       <c r="F5" t="n">
-        <v>2.92394859583192</v>
+        <v>2.92358273576995</v>
       </c>
       <c r="G5" t="n">
-        <v>3.17663302696701</v>
+        <v>3.35348124616177</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/foreign_aid_amount_mean.xlsx
+++ b/xlsx/country_comparison/foreign_aid_amount_mean.xlsx
@@ -407,7 +407,7 @@
         <v>0.4</v>
       </c>
       <c r="C2" t="n">
-        <v>1.13357882359957</v>
+        <v>1.13359523880647</v>
       </c>
       <c r="D2" t="n">
         <v>0.8</v>
@@ -426,69 +426,69 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="e">
-        <v>#NUM!</v>
+      <c r="B3" t="n">
+        <v>5.11933062849281</v>
       </c>
       <c r="C3" t="n">
-        <v>2.90560365821834</v>
+        <v>2.92607112804094</v>
       </c>
       <c r="D3" t="n">
-        <v>2.67517689445609</v>
+        <v>2.67545358968442</v>
       </c>
       <c r="E3" t="n">
-        <v>2.90616259633567</v>
+        <v>2.90606053445937</v>
       </c>
       <c r="F3" t="n">
-        <v>2.65909649636772</v>
+        <v>2.80928061468495</v>
       </c>
       <c r="G3" t="n">
-        <v>3.45366733693718</v>
+        <v>3.45368546902311</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="e">
-        <v>#NUM!</v>
+      <c r="B4" t="n">
+        <v>1.50236314145237</v>
       </c>
       <c r="C4" t="n">
-        <v>2.65748716218498</v>
+        <v>2.67671653319849</v>
       </c>
       <c r="D4" t="n">
-        <v>3.40755479475017</v>
+        <v>3.40706464052749</v>
       </c>
       <c r="E4" t="n">
-        <v>2.91765708209649</v>
+        <v>2.91762660267525</v>
       </c>
       <c r="F4" t="n">
-        <v>2.01061505983645</v>
+        <v>2.05096989679291</v>
       </c>
       <c r="G4" t="n">
-        <v>2.46502816510886</v>
+        <v>2.46471614692672</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="e">
-        <v>#NUM!</v>
+      <c r="B5" t="n">
+        <v>4.06478349939252</v>
       </c>
       <c r="C5" t="n">
-        <v>3.84901946471284</v>
+        <v>3.86835233618015</v>
       </c>
       <c r="D5" t="n">
-        <v>4.66599577940995</v>
+        <v>4.66581980877498</v>
       </c>
       <c r="E5" t="n">
-        <v>4.39841088807466</v>
+        <v>4.3984317264763</v>
       </c>
       <c r="F5" t="n">
-        <v>2.92358273576995</v>
+        <v>3.12240669655364</v>
       </c>
       <c r="G5" t="n">
-        <v>3.35348124616177</v>
+        <v>3.35304400788401</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/foreign_aid_amount_mean.xlsx
+++ b/xlsx/country_comparison/foreign_aid_amount_mean.xlsx
@@ -427,7 +427,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>5.11933062849281</v>
+        <v>4.69118484929197</v>
       </c>
       <c r="C3" t="n">
         <v>2.92607112804094</v>
@@ -450,7 +450,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>1.50236314145237</v>
+        <v>1.77043022956823</v>
       </c>
       <c r="C4" t="n">
         <v>2.67671653319849</v>
@@ -473,7 +473,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>4.06478349939252</v>
+        <v>3.96442012824227</v>
       </c>
       <c r="C5" t="n">
         <v>3.86835233618015</v>
